--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C470"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9226,6 +9226,23 @@
         </is>
       </c>
       <c r="C470" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>07-09-2021</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>770.33</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9242,7 +9259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C470"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17235,6 +17252,23 @@
         </is>
       </c>
       <c r="C470" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>07-09-2021</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>914.23</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C471"/>
+  <dimension ref="A1:C473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9243,6 +9243,40 @@
         </is>
       </c>
       <c r="C471" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>08-09-2021</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>777.94</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>09-09-2021</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>787.51</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9259,7 +9293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C471"/>
+  <dimension ref="A1:C473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17269,6 +17303,40 @@
         </is>
       </c>
       <c r="C471" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>08-09-2021</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>921.4</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>09-09-2021</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>931.19</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -18154,7 +18222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C467"/>
+  <dimension ref="A1:C497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26096,6 +26164,516 @@
         </is>
       </c>
       <c r="C467" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>10-09-2021</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>30008.4</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>11-09-2021</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>30012.4</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>12-09-2021</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>30016.39</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>13-09-2021</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>30020.38</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>14-09-2021</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>30024.38</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>15-09-2021</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>30028.38</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>30032.37</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>17-09-2021</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>30036.37</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>18-09-2021</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>30040.36</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>19-09-2021</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>30044.36</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>20-09-2021</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>30048.36</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>21-09-2021</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>30052.36</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>22-09-2021</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>30056.36</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>23-09-2021</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>30060.36</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>24-09-2021</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>30064.36</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>25-09-2021</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>30068.36</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>26-09-2021</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>30072.36</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>27-09-2021</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>30076.36</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>28-09-2021</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>30080.37</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>29-09-2021</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>30084.37</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>30-09-2021</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>30088.37</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>01-10-2021</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>30092.38</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>02-10-2021</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>30096.38</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>03-10-2021</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>30100.39</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>04-10-2021</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>30104.39</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>05-10-2021</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>30108.4</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>06-10-2021</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>30112.4</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>07-10-2021</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>30116.41</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>08-10-2021</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>30120.42</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>09-10-2021</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>30124.43</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
         <is>
           <t>uf</t>
         </is>
@@ -26112,7 +26690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26421,6 +26999,23 @@
         </is>
       </c>
       <c r="C18" t="inlineStr">
+        <is>
+          <t>utm</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-10-2021</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>52842.0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>utm</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C473"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9277,6 +9277,91 @@
         </is>
       </c>
       <c r="C473" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>10-09-2021</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>791.28</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>11-09-2021</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>12-09-2021</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>13-09-2021</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>789.91</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>14-09-2021</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>784.26</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9293,7 +9378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C473"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17337,6 +17422,91 @@
         </is>
       </c>
       <c r="C473" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>10-09-2021</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>936.2</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>11-09-2021</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>12-09-2021</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>13-09-2021</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>933.15</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>14-09-2021</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>925.82</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9362,6 +9362,23 @@
         </is>
       </c>
       <c r="C478" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>15-09-2021</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>783.25</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9378,7 +9395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17507,6 +17524,23 @@
         </is>
       </c>
       <c r="C478" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>15-09-2021</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>925.94</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C479"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9379,6 +9379,108 @@
         </is>
       </c>
       <c r="C479" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>781.85</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>17-09-2021</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>18-09-2021</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>19-09-2021</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>20-09-2021</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>780.59</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>21-09-2021</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>788.05</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9395,7 +9497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C479"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17541,6 +17643,108 @@
         </is>
       </c>
       <c r="C479" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>923.19</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>17-09-2021</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>18-09-2021</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>19-09-2021</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>20-09-2021</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>917.69</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>21-09-2021</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>924.18</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C485"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9481,6 +9481,57 @@
         </is>
       </c>
       <c r="C485" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>22-09-2021</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>785.1</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>23-09-2021</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>785.03</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>24-09-2021</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>787.24</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9497,7 +9548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C485"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17745,6 +17796,57 @@
         </is>
       </c>
       <c r="C485" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>22-09-2021</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>920.51</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>23-09-2021</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>920.64</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>24-09-2021</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>924.64</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9532,6 +9532,108 @@
         </is>
       </c>
       <c r="C488" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>25-09-2021</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>26-09-2021</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>27-09-2021</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>788.98</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>28-09-2021</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>795.48</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>29-09-2021</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>798.63</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>30-09-2021</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>803.59</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9548,7 +9650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17847,6 +17949,108 @@
         </is>
       </c>
       <c r="C488" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>25-09-2021</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>26-09-2021</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>27-09-2021</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>924.51</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>28-09-2021</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>930.93</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>29-09-2021</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>932.98</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>30-09-2021</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>932.24</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C494"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9634,6 +9634,74 @@
         </is>
       </c>
       <c r="C494" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>01-10-2021</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>811.9</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>02-10-2021</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>03-10-2021</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>04-10-2021</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>803.9</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9650,7 +9718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C494"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18051,6 +18119,74 @@
         </is>
       </c>
       <c r="C494" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>01-10-2021</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>939.48</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>02-10-2021</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>03-10-2021</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>04-10-2021</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>932.38</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C498"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9702,6 +9702,244 @@
         </is>
       </c>
       <c r="C498" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>05-10-2021</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>805.89</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>06-10-2021</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>810.63</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>07-10-2021</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>816.28</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>08-10-2021</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>813.62</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>09-10-2021</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>10-10-2021</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>11-10-2021</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>12-10-2021</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>820.18</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>13-10-2021</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>827.56</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>14-10-2021</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>820.19</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>15-10-2021</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>816.81</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>16-10-2021</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>17-10-2021</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>18-10-2021</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>826.19</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9718,7 +9956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C498"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18187,6 +18425,244 @@
         </is>
       </c>
       <c r="C498" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>05-10-2021</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>936.32</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>06-10-2021</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>940.62</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>07-10-2021</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>942.59</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>08-10-2021</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>940.82</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>09-10-2021</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>10-10-2021</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>11-10-2021</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>12-10-2021</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>948.29</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>13-10-2021</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>953.74</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>14-10-2021</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>950.39</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>15-10-2021</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>946.59</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>16-10-2021</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>17-10-2021</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>18-10-2021</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>958.12</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -19072,7 +19548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C497"/>
+  <dimension ref="A1:C528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27524,6 +28000,533 @@
         </is>
       </c>
       <c r="C497" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>10-10-2021</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>30136.02</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>11-10-2021</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>30147.62</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>12-10-2021</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>30159.23</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>13-10-2021</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>30170.83</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>14-10-2021</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>30182.44</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>15-10-2021</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>30194.06</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>16-10-2021</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>30205.68</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>17-10-2021</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>30217.31</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>18-10-2021</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>30228.94</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>19-10-2021</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>30240.57</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>20-10-2021</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>30252.21</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>21-10-2021</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>30263.85</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>22-10-2021</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>30275.5</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>23-10-2021</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>30287.15</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>24-10-2021</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>30298.81</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>25-10-2021</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>30310.47</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>26-10-2021</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>30322.13</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>27-10-2021</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>30333.8</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>28-10-2021</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>30345.48</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>29-10-2021</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>30357.16</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>30-10-2021</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>30368.84</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>31-10-2021</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>30380.53</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>30392.22</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>02-11-2021</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>30403.92</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>03-11-2021</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>30415.62</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>04-11-2021</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>30427.33</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>05-11-2021</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>30439.04</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>06-11-2021</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>30450.75</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>07-11-2021</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>30462.47</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>08-11-2021</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>30474.19</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>09-11-2021</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>30485.92</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
         <is>
           <t>uf</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9940,6 +9940,618 @@
         </is>
       </c>
       <c r="C512" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>19-10-2021</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>820.29</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>20-10-2021</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>813.33</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>21-10-2021</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>811.55</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>22-10-2021</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>817.61</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>23-10-2021</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>24-10-2021</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>25-10-2021</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>816.58</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>26-10-2021</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>810.16</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>27-10-2021</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>806.55</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>28-10-2021</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>804.32</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>29-10-2021</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>805.47</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>30-10-2021</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>31-10-2021</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>02-11-2021</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>810.91</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>03-11-2021</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>814.42</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>04-11-2021</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>815.52</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>05-11-2021</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>815.58</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>06-11-2021</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>07-11-2021</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>08-11-2021</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>812.4</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>09-11-2021</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>806.61</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>797.78</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>11-11-2021</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>791.71</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12-11-2021</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>791.3</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>13-11-2021</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>14-11-2021</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>15-11-2021</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>797.8</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>16-11-2021</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>801.96</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>17-11-2021</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>806.24</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>18-11-2021</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>819.56</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>834.57</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>21-11-2021</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>22-11-2021</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>832.72</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>808.14</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -9956,7 +10568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18663,6 +19275,618 @@
         </is>
       </c>
       <c r="C512" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>19-10-2021</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>952.72</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>20-10-2021</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>946.83</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>21-10-2021</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>945.64</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>22-10-2021</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>951.48</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>23-10-2021</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>24-10-2021</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>25-10-2021</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>949.4</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>26-10-2021</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>940.73</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>27-10-2021</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>935.02</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>28-10-2021</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>933.84</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>29-10-2021</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>940.97</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>30-10-2021</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>31-10-2021</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>02-11-2021</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>937.03</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>03-11-2021</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>943.05</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>04-11-2021</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>944.33</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>05-11-2021</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>941.78</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>06-11-2021</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>07-11-2021</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>08-11-2021</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>939.19</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>09-11-2021</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>934.87</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>924.53</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>11-11-2021</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>911.27</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12-11-2021</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>906.73</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>13-11-2021</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>14-11-2021</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>15-11-2021</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>913.02</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>16-11-2021</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>913.39</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>17-11-2021</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>912.66</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>18-11-2021</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>927.52</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>949.13</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>21-11-2021</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>22-11-2021</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>942.31</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>909.56</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -19548,7 +20772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C528"/>
+  <dimension ref="A1:C558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28527,6 +29751,516 @@
         </is>
       </c>
       <c r="C528" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>30499.05</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>11-11-2021</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>30512.18</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>12-11-2021</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>30525.32</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>13-11-2021</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>30538.47</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>14-11-2021</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>30551.62</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>15-11-2021</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>30564.77</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>16-11-2021</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>30577.94</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>17-11-2021</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>30591.1</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>18-11-2021</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>30604.28</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>30617.46</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>30630.64</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>21-11-2021</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>30643.83</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>22-11-2021</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>30657.03</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>30670.23</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>24-11-2021</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>30683.44</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>30696.65</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>26-11-2021</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>30709.87</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>27-11-2021</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>30723.1</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>28-11-2021</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>30736.33</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>29-11-2021</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>30749.56</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>30-11-2021</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>30762.8</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>30776.05</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>30789.3</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>30802.56</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>04-12-2021</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>30815.83</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>05-12-2021</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>30829.1</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>06-12-2021</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>30842.37</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>30855.66</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>30868.94</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>30882.24</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
         <is>
           <t>uf</t>
         </is>
@@ -28543,7 +30277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28869,6 +30603,40 @@
         </is>
       </c>
       <c r="C19" t="inlineStr">
+        <is>
+          <t>utm</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>53476.0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>utm</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>54171.0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>utm</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10552,6 +10552,176 @@
         </is>
       </c>
       <c r="C548" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>24-11-2021</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>809.94</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>811.7</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>26-11-2021</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>819.59</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>27-11-2021</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>28-11-2021</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>29-11-2021</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>829.94</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>30-11-2021</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>836.73</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>837.55</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>828.17</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>837.72</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10568,7 +10738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19887,6 +20057,176 @@
         </is>
       </c>
       <c r="C548" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>24-11-2021</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>912.2</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>908.45</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>26-11-2021</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>918.41</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>27-11-2021</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>28-11-2021</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>29-11-2021</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>937.57</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>30-11-2021</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>942.69</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>946.38</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>937.69</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>946.47</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C558"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10722,6 +10722,108 @@
         </is>
       </c>
       <c r="C558" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>04-12-2021</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>05-12-2021</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>06-12-2021</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>837.69</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>842.32</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>839.53</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10738,7 +10840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C558"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20227,6 +20329,108 @@
         </is>
       </c>
       <c r="C558" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>04-12-2021</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>05-12-2021</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>06-12-2021</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>947.29</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>950.06</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>944.14</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -30617,7 +30821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30977,6 +31181,23 @@
         </is>
       </c>
       <c r="C21" t="inlineStr">
+        <is>
+          <t>utm</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>54442.0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>utm</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C564"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10824,6 +10824,40 @@
         </is>
       </c>
       <c r="C564" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>841.32</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>849.16</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10840,7 +10874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C564"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20431,6 +20465,40 @@
         </is>
       </c>
       <c r="C564" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>949.89</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>961.02</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -21316,7 +21384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C558"/>
+  <dimension ref="A1:C589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30805,6 +30873,533 @@
         </is>
       </c>
       <c r="C558" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>30887.21</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>30892.18</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>30897.15</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>30902.12</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>30907.09</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>30912.07</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>30917.04</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>30922.01</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>30926.99</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>30931.97</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>30936.94</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>30941.92</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>30946.9</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>30951.88</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>30956.86</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>25-12-2021</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>30961.84</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>26-12-2021</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>30966.82</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>30971.8</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>30976.79</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>29-12-2021</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>30981.77</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>30-12-2021</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>30986.76</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>31-12-2021</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>30991.74</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>30996.73</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>02-01-2022</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>31001.72</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>31006.71</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>04-01-2022</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>31011.69</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>05-01-2022</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>31016.68</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>06-01-2022</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>31021.67</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>07-01-2022</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>31026.67</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>08-01-2022</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>31031.66</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>09-01-2022</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>31036.65</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
         <is>
           <t>uf</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C566"/>
+  <dimension ref="A1:C569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10849,15 +10849,66 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
           <t>13-12-2021</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr">
+      <c r="B568" t="inlineStr">
         <is>
           <t>849.16</t>
         </is>
       </c>
-      <c r="C566" t="inlineStr">
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>843.43</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10874,7 +10925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C566"/>
+  <dimension ref="A1:C569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20490,15 +20541,66 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
           <t>13-12-2021</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr">
+      <c r="B568" t="inlineStr">
         <is>
           <t>961.02</t>
         </is>
       </c>
-      <c r="C566" t="inlineStr">
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>953.46</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C569"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10909,6 +10909,23 @@
         </is>
       </c>
       <c r="C569" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>846.43</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10925,7 +10942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C569"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20601,6 +20618,23 @@
         </is>
       </c>
       <c r="C569" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>954.15</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C570"/>
+  <dimension ref="A1:C573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10926,6 +10926,57 @@
         </is>
       </c>
       <c r="C570" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>848.52</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>849.65</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>846.64</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10942,7 +10993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C570"/>
+  <dimension ref="A1:C573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20635,6 +20686,57 @@
         </is>
       </c>
       <c r="C570" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>955.76</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>961.25</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>954.18</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C573"/>
+  <dimension ref="A1:C575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10968,15 +10968,49 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
           <t>20-12-2021</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr">
+      <c r="B575" t="inlineStr">
         <is>
           <t>846.64</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr">
+      <c r="C575" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -10993,7 +11027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C573"/>
+  <dimension ref="A1:C575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20728,15 +20762,49 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
           <t>20-12-2021</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr">
+      <c r="B575" t="inlineStr">
         <is>
           <t>954.18</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr">
+      <c r="C575" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C575"/>
+  <dimension ref="A1:C576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11011,6 +11011,23 @@
         </is>
       </c>
       <c r="C575" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>863.21</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11027,7 +11044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C575"/>
+  <dimension ref="A1:C576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20805,6 +20822,23 @@
         </is>
       </c>
       <c r="C575" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>973.73</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11028,6 +11028,40 @@
         </is>
       </c>
       <c r="C576" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>868.76</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>866.25</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11044,7 +11078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20839,6 +20873,40 @@
         </is>
       </c>
       <c r="C576" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>978.99</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>981.25</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C578"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11062,6 +11062,74 @@
         </is>
       </c>
       <c r="C578" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>857.14</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>25-12-2021</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>26-12-2021</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>863.29</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11078,7 +11146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C578"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20907,6 +20975,74 @@
         </is>
       </c>
       <c r="C578" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>971.26</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>25-12-2021</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>26-12-2021</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>976.24</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C582"/>
+  <dimension ref="A1:C583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11130,6 +11130,23 @@
         </is>
       </c>
       <c r="C582" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>858.59</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11146,7 +11163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C582"/>
+  <dimension ref="A1:C583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21043,6 +21060,23 @@
         </is>
       </c>
       <c r="C582" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>972.36</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11147,6 +11147,40 @@
         </is>
       </c>
       <c r="C583" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>29-12-2021</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>855.94</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>30-12-2021</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>850.25</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11163,7 +11197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21077,6 +21111,40 @@
         </is>
       </c>
       <c r="C583" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>29-12-2021</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>968.81</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>30-12-2021</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>964.44</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11181,6 +11181,74 @@
         </is>
       </c>
       <c r="C585" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>31-12-2021</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>02-01-2022</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>844.69</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11197,7 +11265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21145,6 +21213,74 @@
         </is>
       </c>
       <c r="C585" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>31-12-2021</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>02-01-2022</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>955.64</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C589"/>
+  <dimension ref="A1:C592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11249,6 +11249,57 @@
         </is>
       </c>
       <c r="C589" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>04-01-2022</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>851.43</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>05-01-2022</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>852.03</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>06-01-2022</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>841.63</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11265,7 +11316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C589"/>
+  <dimension ref="A1:C592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21281,6 +21332,57 @@
         </is>
       </c>
       <c r="C589" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>04-01-2022</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>960.44</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>05-01-2022</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>961.88</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>06-01-2022</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>954.45</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C592"/>
+  <dimension ref="A1:C596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11300,6 +11300,74 @@
         </is>
       </c>
       <c r="C592" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>07-01-2022</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>838.88</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>08-01-2022</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>09-01-2022</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>831.59</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11316,7 +11384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C592"/>
+  <dimension ref="A1:C596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21383,6 +21451,74 @@
         </is>
       </c>
       <c r="C592" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>07-01-2022</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>948.53</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>08-01-2022</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>09-01-2022</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>944.34</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -22404,7 +22404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C589"/>
+  <dimension ref="A1:C620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32420,6 +32420,533 @@
         </is>
       </c>
       <c r="C589" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>31044.63</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>31052.61</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>31060.59</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>31068.58</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>31076.56</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>15-01-2022</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>31084.55</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>16-01-2022</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>31092.54</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>31100.54</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>18-01-2022</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>31108.53</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>31116.53</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>31124.53</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>21-01-2022</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>31132.53</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>22-01-2022</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>31140.53</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>23-01-2022</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>31148.54</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>31156.54</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>31164.55</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>31172.57</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>31180.58</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>31188.59</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>29-01-2022</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>31196.61</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>30-01-2022</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>31204.63</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>31212.65</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>31220.68</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>02-02-2022</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>31228.7</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>03-02-2022</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>31236.73</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>04-02-2022</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>31244.76</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>05-02-2022</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>31252.79</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>06-02-2022</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>31260.83</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>07-02-2022</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>31268.86</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>08-02-2022</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>31276.9</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>09-02-2022</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>31284.94</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
         <is>
           <t>uf</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C596"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11368,6 +11368,57 @@
         </is>
       </c>
       <c r="C596" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>831.39</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>832.6</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>826.51</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11384,7 +11435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C596"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21519,6 +21570,57 @@
         </is>
       </c>
       <c r="C596" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>942.08</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>945.6</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>945.34</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
@@ -32963,7 +33065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33340,6 +33442,23 @@
         </is>
       </c>
       <c r="C22" t="inlineStr">
+        <is>
+          <t>utm</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>54878.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>utm</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11419,6 +11419,23 @@
         </is>
       </c>
       <c r="C599" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>821.87</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11435,7 +11452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21621,6 +21638,23 @@
         </is>
       </c>
       <c r="C599" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>942.08</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C600"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11436,6 +11436,57 @@
         </is>
       </c>
       <c r="C600" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>15-01-2022</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>16-01-2022</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>815.39</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11452,7 +11503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C600"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21655,6 +21706,57 @@
         </is>
       </c>
       <c r="C600" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>15-01-2022</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>16-01-2022</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>930.07</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C603"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11487,6 +11487,23 @@
         </is>
       </c>
       <c r="C603" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>18-01-2022</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>822.0</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11503,7 +11520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C603"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21757,6 +21774,23 @@
         </is>
       </c>
       <c r="C603" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>18-01-2022</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>938.03</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C604"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11504,6 +11504,40 @@
         </is>
       </c>
       <c r="C604" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>820.6</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>813.46</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11520,7 +11554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C604"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21791,6 +21825,40 @@
         </is>
       </c>
       <c r="C604" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>929.54</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>923.02</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C606"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11538,6 +11538,74 @@
         </is>
       </c>
       <c r="C606" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>21-01-2022</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>805.25</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>22-01-2022</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>23-01-2022</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>799.23</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11554,7 +11622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C606"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21859,6 +21927,74 @@
         </is>
       </c>
       <c r="C606" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>21-01-2022</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>912.46</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>22-01-2022</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>23-01-2022</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>906.88</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C610"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11606,6 +11606,23 @@
         </is>
       </c>
       <c r="C610" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>800.31</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11622,7 +11639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C610"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21995,6 +22012,23 @@
         </is>
       </c>
       <c r="C610" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>906.05</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11623,6 +11623,74 @@
         </is>
       </c>
       <c r="C611" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>806.06</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>798.86</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>799.15</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>810.12</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11639,7 +11707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22029,6 +22097,108 @@
         </is>
       </c>
       <c r="C611" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>909.57</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>901.65</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>890.81</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>29-01-2022</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>30-01-2022</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>903.85</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C615"/>
+  <dimension ref="A1:C617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11682,15 +11682,49 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
+          <t>29-01-2022</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>30-01-2022</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
           <t>31-01-2022</t>
         </is>
       </c>
-      <c r="B615" t="inlineStr">
+      <c r="B617" t="inlineStr">
         <is>
           <t>810.12</t>
         </is>
       </c>
-      <c r="C615" t="inlineStr">
+      <c r="C617" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C617"/>
+  <dimension ref="A1:C620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11725,6 +11725,57 @@
         </is>
       </c>
       <c r="C617" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>803.88</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>02-02-2022</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>801.52</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>03-02-2022</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>805.95</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11741,7 +11792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C617"/>
+  <dimension ref="A1:C620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22233,6 +22284,57 @@
         </is>
       </c>
       <c r="C617" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>901.51</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>02-02-2022</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>901.19</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>03-02-2022</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>911.3</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C620"/>
+  <dimension ref="A1:C621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11776,6 +11776,23 @@
         </is>
       </c>
       <c r="C620" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>04-02-2022</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>817.29</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11792,7 +11809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C620"/>
+  <dimension ref="A1:C621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22335,6 +22352,23 @@
         </is>
       </c>
       <c r="C620" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>04-02-2022</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>934.47</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
         <is>
           <t>euro</t>
         </is>

--- a/Indicadores Diarios/Indicadores_Diarios.xlsx
+++ b/Indicadores Diarios/Indicadores_Diarios.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C621"/>
+  <dimension ref="A1:C624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11793,6 +11793,57 @@
         </is>
       </c>
       <c r="C621" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>05-02-2022</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>06-02-2022</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Dolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>07-02-2022</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>825.58</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
         <is>
           <t>Dolar</t>
         </is>
@@ -11809,7 +11860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C621"/>
+  <dimension ref="A1:C624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22369,6 +22420,57 @@
         </is>
       </c>
       <c r="C621" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>05-02-2022</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>06-02-2022</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>07-02-2022</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>946.01</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
         <is>
           <t>euro</t>
         </is>
